--- a/julia/RFFO/all_instances_result_RFFO_Zkt_ABC.xlsx
+++ b/julia/RFFO/all_instances_result_RFFO_Zkt_ABC.xlsx
@@ -563,7 +563,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.0081</v>
+        <v>0.0056</v>
       </c>
       <c r="E2">
         <v>14028.0</v>
@@ -572,10 +572,10 @@
         <v>0.0</v>
       </c>
       <c r="G2">
-        <v>0.0043</v>
+        <v>0.0038</v>
       </c>
       <c r="H2">
-        <v>0.0124</v>
+        <v>0.0094</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -589,7 +589,7 @@
         <v>0.0</v>
       </c>
       <c r="D3">
-        <v>0.0051</v>
+        <v>0.0056</v>
       </c>
       <c r="E3">
         <v>11378.0</v>
@@ -598,10 +598,10 @@
         <v>0.0</v>
       </c>
       <c r="G3">
-        <v>0.0037</v>
+        <v>0.0041</v>
       </c>
       <c r="H3">
-        <v>0.0088</v>
+        <v>0.0097</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -615,7 +615,7 @@
         <v>0.0</v>
       </c>
       <c r="D4">
-        <v>0.008</v>
+        <v>0.0078</v>
       </c>
       <c r="E4">
         <v>11392.0</v>
@@ -627,7 +627,7 @@
         <v>0.0039</v>
       </c>
       <c r="H4">
-        <v>0.0119</v>
+        <v>0.011699999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -641,7 +641,7 @@
         <v>0.0</v>
       </c>
       <c r="D5">
-        <v>0.0061</v>
+        <v>0.008</v>
       </c>
       <c r="E5">
         <v>13043.0</v>
@@ -650,10 +650,10 @@
         <v>0.0</v>
       </c>
       <c r="G5">
-        <v>0.004</v>
+        <v>0.0052</v>
       </c>
       <c r="H5">
-        <v>0.010100000000000001</v>
+        <v>0.0132</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -667,7 +667,7 @@
         <v>0.0</v>
       </c>
       <c r="D6">
-        <v>0.0066</v>
+        <v>0.0056</v>
       </c>
       <c r="E6">
         <v>13358.0</v>
@@ -676,10 +676,10 @@
         <v>0.0</v>
       </c>
       <c r="G6">
-        <v>0.0031</v>
+        <v>0.0033</v>
       </c>
       <c r="H6">
-        <v>0.0097</v>
+        <v>0.0089</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -693,7 +693,7 @@
         <v>0.0</v>
       </c>
       <c r="D7">
-        <v>0.0066</v>
+        <v>0.0081</v>
       </c>
       <c r="E7">
         <v>12370.0</v>
@@ -702,10 +702,10 @@
         <v>0.0</v>
       </c>
       <c r="G7">
-        <v>0.0037</v>
+        <v>0.005</v>
       </c>
       <c r="H7">
-        <v>0.0103</v>
+        <v>0.0131</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -719,7 +719,7 @@
         <v>0.0</v>
       </c>
       <c r="D8">
-        <v>0.0063</v>
+        <v>0.0609</v>
       </c>
       <c r="E8">
         <v>9292.0</v>
@@ -728,10 +728,10 @@
         <v>0.0</v>
       </c>
       <c r="G8">
-        <v>0.0038</v>
+        <v>0.0025</v>
       </c>
       <c r="H8">
-        <v>0.0101</v>
+        <v>0.0634</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -745,7 +745,7 @@
         <v>0.0</v>
       </c>
       <c r="D9">
-        <v>0.0056</v>
+        <v>0.005</v>
       </c>
       <c r="E9">
         <v>11934.0</v>
@@ -754,10 +754,10 @@
         <v>0.0</v>
       </c>
       <c r="G9">
-        <v>0.0034</v>
+        <v>0.0045</v>
       </c>
       <c r="H9">
-        <v>0.009</v>
+        <v>0.0095</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -771,7 +771,7 @@
         <v>0.0</v>
       </c>
       <c r="D10">
-        <v>0.0086</v>
+        <v>0.0058</v>
       </c>
       <c r="E10">
         <v>13044.0</v>
@@ -780,10 +780,10 @@
         <v>0.0</v>
       </c>
       <c r="G10">
-        <v>0.0058</v>
+        <v>0.005</v>
       </c>
       <c r="H10">
-        <v>0.0144</v>
+        <v>0.0108</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -797,7 +797,7 @@
         <v>0.0</v>
       </c>
       <c r="D11">
-        <v>0.006</v>
+        <v>0.0053</v>
       </c>
       <c r="E11">
         <v>9475.0</v>
@@ -806,10 +806,10 @@
         <v>0.0</v>
       </c>
       <c r="G11">
-        <v>0.003</v>
+        <v>0.0036</v>
       </c>
       <c r="H11">
-        <v>0.009000000000000001</v>
+        <v>0.0089</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -823,7 +823,7 @@
         <v>0.0</v>
       </c>
       <c r="D12">
-        <v>0.0511</v>
+        <v>0.0497</v>
       </c>
       <c r="E12">
         <v>22940.81</v>
@@ -832,10 +832,10 @@
         <v>0.0</v>
       </c>
       <c r="G12">
-        <v>0.0295</v>
+        <v>0.0316</v>
       </c>
       <c r="H12">
-        <v>0.0806</v>
+        <v>0.08130000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -843,13 +843,13 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>22326.0</v>
+        <v>22286.0</v>
       </c>
       <c r="C13">
-        <v>0.18</v>
+        <v>0.0</v>
       </c>
       <c r="D13">
-        <v>0.0452</v>
+        <v>0.041</v>
       </c>
       <c r="E13">
         <v>22286.0</v>
@@ -858,10 +858,10 @@
         <v>0.0</v>
       </c>
       <c r="G13">
-        <v>0.0462</v>
+        <v>0.0272</v>
       </c>
       <c r="H13">
-        <v>0.0914</v>
+        <v>0.0682</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -875,7 +875,7 @@
         <v>0.0</v>
       </c>
       <c r="D14">
-        <v>0.0339</v>
+        <v>0.0558</v>
       </c>
       <c r="E14">
         <v>19925.78</v>
@@ -884,10 +884,10 @@
         <v>0.0</v>
       </c>
       <c r="G14">
-        <v>0.0237</v>
+        <v>0.0311</v>
       </c>
       <c r="H14">
-        <v>0.0576</v>
+        <v>0.0869</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -901,7 +901,7 @@
         <v>0.39</v>
       </c>
       <c r="D15">
-        <v>0.0637</v>
+        <v>0.0682</v>
       </c>
       <c r="E15">
         <v>22155.21</v>
@@ -910,10 +910,10 @@
         <v>0.0</v>
       </c>
       <c r="G15">
-        <v>0.0598</v>
+        <v>0.0785</v>
       </c>
       <c r="H15">
-        <v>0.1235</v>
+        <v>0.1467</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -927,7 +927,7 @@
         <v>0.0</v>
       </c>
       <c r="D16">
-        <v>0.0202</v>
+        <v>0.0306</v>
       </c>
       <c r="E16">
         <v>19613.0</v>
@@ -936,10 +936,10 @@
         <v>0.0</v>
       </c>
       <c r="G16">
-        <v>0.0267</v>
+        <v>0.0209</v>
       </c>
       <c r="H16">
-        <v>0.0469</v>
+        <v>0.0515</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -953,7 +953,7 @@
         <v>0.01</v>
       </c>
       <c r="D17">
-        <v>0.0593</v>
+        <v>0.0731</v>
       </c>
       <c r="E17">
         <v>22532.32</v>
@@ -962,10 +962,10 @@
         <v>0.0</v>
       </c>
       <c r="G17">
-        <v>0.0702</v>
+        <v>0.1425</v>
       </c>
       <c r="H17">
-        <v>0.1295</v>
+        <v>0.21559999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -979,7 +979,7 @@
         <v>0.0</v>
       </c>
       <c r="D18">
-        <v>0.0378</v>
+        <v>0.039</v>
       </c>
       <c r="E18">
         <v>20632.31</v>
@@ -988,10 +988,10 @@
         <v>0.0</v>
       </c>
       <c r="G18">
-        <v>0.033</v>
+        <v>0.0313</v>
       </c>
       <c r="H18">
-        <v>0.0708</v>
+        <v>0.0703</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1005,7 +1005,7 @@
         <v>0.25</v>
       </c>
       <c r="D19">
-        <v>0.0834</v>
+        <v>0.1161</v>
       </c>
       <c r="E19">
         <v>23396.85</v>
@@ -1014,10 +1014,10 @@
         <v>0.0</v>
       </c>
       <c r="G19">
-        <v>0.0509</v>
+        <v>0.0937</v>
       </c>
       <c r="H19">
-        <v>0.1343</v>
+        <v>0.2098</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1031,7 +1031,7 @@
         <v>0.0</v>
       </c>
       <c r="D20">
-        <v>0.0421</v>
+        <v>0.045</v>
       </c>
       <c r="E20">
         <v>20817.44</v>
@@ -1040,10 +1040,10 @@
         <v>0.0</v>
       </c>
       <c r="G20">
-        <v>0.0289</v>
+        <v>0.0359</v>
       </c>
       <c r="H20">
-        <v>0.071</v>
+        <v>0.0809</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1057,7 +1057,7 @@
         <v>0.0</v>
       </c>
       <c r="D21">
-        <v>0.068</v>
+        <v>0.0504</v>
       </c>
       <c r="E21">
         <v>25502.0</v>
@@ -1066,10 +1066,10 @@
         <v>0.0</v>
       </c>
       <c r="G21">
-        <v>0.0467</v>
+        <v>0.03</v>
       </c>
       <c r="H21">
-        <v>0.1147</v>
+        <v>0.0804</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1083,7 +1083,7 @@
         <v>0.0</v>
       </c>
       <c r="D22">
-        <v>0.0151</v>
+        <v>0.0156</v>
       </c>
       <c r="E22">
         <v>34940.0</v>
@@ -1092,10 +1092,10 @@
         <v>0.0</v>
       </c>
       <c r="G22">
-        <v>0.0097</v>
+        <v>0.0089</v>
       </c>
       <c r="H22">
-        <v>0.024800000000000003</v>
+        <v>0.0245</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1109,7 +1109,7 @@
         <v>0.0</v>
       </c>
       <c r="D23">
-        <v>0.0151</v>
+        <v>0.0152</v>
       </c>
       <c r="E23">
         <v>33986.0</v>
@@ -1118,10 +1118,10 @@
         <v>0.0</v>
       </c>
       <c r="G23">
-        <v>0.0113</v>
+        <v>0.0095</v>
       </c>
       <c r="H23">
-        <v>0.0264</v>
+        <v>0.0247</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1135,7 +1135,7 @@
         <v>0.0</v>
       </c>
       <c r="D24">
-        <v>0.0166</v>
+        <v>0.0156</v>
       </c>
       <c r="E24">
         <v>38217.0</v>
@@ -1144,10 +1144,10 @@
         <v>0.0</v>
       </c>
       <c r="G24">
-        <v>0.0111</v>
+        <v>0.0078</v>
       </c>
       <c r="H24">
-        <v>0.027700000000000002</v>
+        <v>0.023399999999999997</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1161,7 +1161,7 @@
         <v>0.0</v>
       </c>
       <c r="D25">
-        <v>0.0113</v>
+        <v>0.0101</v>
       </c>
       <c r="E25">
         <v>37979.0</v>
@@ -1170,10 +1170,10 @@
         <v>0.0</v>
       </c>
       <c r="G25">
-        <v>0.0066</v>
+        <v>0.0074</v>
       </c>
       <c r="H25">
-        <v>0.0179</v>
+        <v>0.0175</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1187,7 +1187,7 @@
         <v>0.0</v>
       </c>
       <c r="D26">
-        <v>0.0147</v>
+        <v>0.0146</v>
       </c>
       <c r="E26">
         <v>40884.0</v>
@@ -1196,10 +1196,10 @@
         <v>0.0</v>
       </c>
       <c r="G26">
-        <v>0.0091</v>
+        <v>0.009</v>
       </c>
       <c r="H26">
-        <v>0.0238</v>
+        <v>0.0236</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1213,7 +1213,7 @@
         <v>0.0</v>
       </c>
       <c r="D27">
-        <v>0.0126</v>
+        <v>0.0147</v>
       </c>
       <c r="E27">
         <v>38477.0</v>
@@ -1222,10 +1222,10 @@
         <v>0.0</v>
       </c>
       <c r="G27">
-        <v>0.0078</v>
+        <v>0.009</v>
       </c>
       <c r="H27">
-        <v>0.0204</v>
+        <v>0.0237</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1239,7 +1239,7 @@
         <v>0.0</v>
       </c>
       <c r="D28">
-        <v>0.0171</v>
+        <v>0.0161</v>
       </c>
       <c r="E28">
         <v>42836.0</v>
@@ -1248,10 +1248,10 @@
         <v>0.0</v>
       </c>
       <c r="G28">
-        <v>0.0098</v>
+        <v>0.0101</v>
       </c>
       <c r="H28">
-        <v>0.0269</v>
+        <v>0.0262</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1265,7 +1265,7 @@
         <v>0.0</v>
       </c>
       <c r="D29">
-        <v>0.0172</v>
+        <v>0.014</v>
       </c>
       <c r="E29">
         <v>41040.0</v>
@@ -1274,10 +1274,10 @@
         <v>0.0</v>
       </c>
       <c r="G29">
-        <v>0.0115</v>
+        <v>0.0091</v>
       </c>
       <c r="H29">
-        <v>0.0287</v>
+        <v>0.023100000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1300,10 +1300,10 @@
         <v>0.0</v>
       </c>
       <c r="G30">
-        <v>0.011</v>
+        <v>0.0087</v>
       </c>
       <c r="H30">
-        <v>0.0252</v>
+        <v>0.0229</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1317,7 +1317,7 @@
         <v>0.0</v>
       </c>
       <c r="D31">
-        <v>0.0175</v>
+        <v>0.0152</v>
       </c>
       <c r="E31">
         <v>42004.0</v>
@@ -1326,10 +1326,10 @@
         <v>0.0</v>
       </c>
       <c r="G31">
-        <v>0.0082</v>
+        <v>0.0099</v>
       </c>
       <c r="H31">
-        <v>0.0257</v>
+        <v>0.0251</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1343,7 +1343,7 @@
         <v>0.0</v>
       </c>
       <c r="D32">
-        <v>0.0985</v>
+        <v>0.0809</v>
       </c>
       <c r="E32">
         <v>75649.0</v>
@@ -1352,10 +1352,10 @@
         <v>0.0</v>
       </c>
       <c r="G32">
-        <v>0.0499</v>
+        <v>0.0337</v>
       </c>
       <c r="H32">
-        <v>0.1484</v>
+        <v>0.11460000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1363,13 +1363,13 @@
         <v>39</v>
       </c>
       <c r="B33">
-        <v>75318.0</v>
+        <v>75316.46</v>
       </c>
       <c r="C33">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="D33">
-        <v>0.0699</v>
+        <v>0.0649</v>
       </c>
       <c r="E33">
         <v>75318.0</v>
@@ -1378,10 +1378,10 @@
         <v>0.0</v>
       </c>
       <c r="G33">
-        <v>0.0553</v>
+        <v>0.0343</v>
       </c>
       <c r="H33">
-        <v>0.1252</v>
+        <v>0.0992</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1395,7 +1395,7 @@
         <v>0.0</v>
       </c>
       <c r="D34">
-        <v>0.0458</v>
+        <v>0.0366</v>
       </c>
       <c r="E34">
         <v>70349.0</v>
@@ -1404,10 +1404,10 @@
         <v>0.0</v>
       </c>
       <c r="G34">
-        <v>0.0379</v>
+        <v>0.0241</v>
       </c>
       <c r="H34">
-        <v>0.0837</v>
+        <v>0.060700000000000004</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1421,7 +1421,7 @@
         <v>0.0</v>
       </c>
       <c r="D35">
-        <v>0.0446</v>
+        <v>0.0438</v>
       </c>
       <c r="E35">
         <v>73523.0</v>
@@ -1430,10 +1430,10 @@
         <v>0.0</v>
       </c>
       <c r="G35">
-        <v>0.0329</v>
+        <v>0.0236</v>
       </c>
       <c r="H35">
-        <v>0.0775</v>
+        <v>0.0674</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1447,7 +1447,7 @@
         <v>0.0</v>
       </c>
       <c r="D36">
-        <v>0.0476</v>
+        <v>0.0282</v>
       </c>
       <c r="E36">
         <v>75122.0</v>
@@ -1456,10 +1456,10 @@
         <v>0.0</v>
       </c>
       <c r="G36">
-        <v>0.0351</v>
+        <v>0.0231</v>
       </c>
       <c r="H36">
-        <v>0.0827</v>
+        <v>0.0513</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1473,7 +1473,7 @@
         <v>0.04</v>
       </c>
       <c r="D37">
-        <v>0.1108</v>
+        <v>0.0769</v>
       </c>
       <c r="E37">
         <v>76450.95</v>
@@ -1482,10 +1482,10 @@
         <v>0.0</v>
       </c>
       <c r="G37">
-        <v>0.0723</v>
+        <v>0.0635</v>
       </c>
       <c r="H37">
-        <v>0.18309999999999998</v>
+        <v>0.1404</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1499,19 +1499,19 @@
         <v>0.0</v>
       </c>
       <c r="D38">
-        <v>0.0618</v>
+        <v>0.0568</v>
       </c>
       <c r="E38">
-        <v>72585.0</v>
+        <v>72581.0</v>
       </c>
       <c r="F38">
-        <v>0.0</v>
+        <v>-0.01</v>
       </c>
       <c r="G38">
-        <v>0.0398</v>
+        <v>0.0306</v>
       </c>
       <c r="H38">
-        <v>0.1016</v>
+        <v>0.0874</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1525,7 +1525,7 @@
         <v>0.0</v>
       </c>
       <c r="D39">
-        <v>0.0497</v>
+        <v>0.0455</v>
       </c>
       <c r="E39">
         <v>73843.0</v>
@@ -1534,10 +1534,10 @@
         <v>0.0</v>
       </c>
       <c r="G39">
-        <v>0.0494</v>
+        <v>0.0231</v>
       </c>
       <c r="H39">
-        <v>0.0991</v>
+        <v>0.0686</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1551,7 +1551,7 @@
         <v>0.0</v>
       </c>
       <c r="D40">
-        <v>0.0603</v>
+        <v>0.06</v>
       </c>
       <c r="E40">
         <v>77075.0</v>
@@ -1560,10 +1560,10 @@
         <v>0.0</v>
       </c>
       <c r="G40">
-        <v>0.0418</v>
+        <v>0.026</v>
       </c>
       <c r="H40">
-        <v>0.1021</v>
+        <v>0.086</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1577,7 +1577,7 @@
         <v>0.0</v>
       </c>
       <c r="D41">
-        <v>0.0623</v>
+        <v>0.0355</v>
       </c>
       <c r="E41">
         <v>74180.0</v>
@@ -1586,10 +1586,10 @@
         <v>0.0</v>
       </c>
       <c r="G41">
-        <v>0.0391</v>
+        <v>0.0238</v>
       </c>
       <c r="H41">
-        <v>0.1014</v>
+        <v>0.0593</v>
       </c>
     </row>
   </sheetData>
